--- a/Mifos Automation Excels/Client/2584-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-PATTERN-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2584-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-PATTERN-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -174,12 +174,6 @@
     <t>$ 51.79</t>
   </si>
   <si>
-    <t>$ 942.48</t>
-  </si>
-  <si>
-    <t>$ 42.48</t>
-  </si>
-  <si>
     <t>system</t>
   </si>
   <si>
@@ -189,10 +183,22 @@
     <t>L88</t>
   </si>
   <si>
-    <t>$ 193.25</t>
-  </si>
-  <si>
     <t>Accrual</t>
+  </si>
+  <si>
+    <t>L3792</t>
+  </si>
+  <si>
+    <t>L3817</t>
+  </si>
+  <si>
+    <t>$ 51.15</t>
+  </si>
+  <si>
+    <t>$ 951.15</t>
+  </si>
+  <si>
+    <t>$ 605</t>
   </si>
 </sst>
 </file>
@@ -299,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -328,20 +334,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,10 +695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD14"/>
+      <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +712,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -716,7 +732,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>10000</v>
       </c>
@@ -733,14 +749,13 @@
       <c r="F2" s="6">
         <v>0</v>
       </c>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>509.24</v>
+        <v>605</v>
       </c>
       <c r="B3" s="6">
-        <v>94.27</v>
+        <v>102.94</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
@@ -749,13 +764,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>414.97</v>
+        <v>502.06</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -775,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -806,7 +821,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="D10" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +918,7 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -998,7 +1013,7 @@
         <v>8200</v>
       </c>
       <c r="H5" s="6">
-        <v>42.48</v>
+        <v>51.15</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -1007,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <v>942.48</v>
+        <v>951.15</v>
       </c>
       <c r="L5" s="6">
-        <v>942.48</v>
+        <v>951.15</v>
       </c>
       <c r="M5" s="6">
         <v>0</v>
@@ -1041,7 +1056,7 @@
         <v>7300</v>
       </c>
       <c r="H6" s="6">
-        <v>82</v>
+        <v>90.79</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -1050,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="6">
-        <v>982</v>
+        <v>990.79</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -1062,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6">
-        <v>982</v>
+        <v>990.79</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1084,7 +1099,7 @@
         <v>6400</v>
       </c>
       <c r="H7" s="6">
-        <v>73</v>
+        <v>81.62</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -1093,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="6">
-        <v>973</v>
+        <v>981.62</v>
       </c>
       <c r="L7" s="6">
         <v>0</v>
@@ -1105,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6">
-        <v>973</v>
+        <v>981.62</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1127,7 +1142,7 @@
         <v>5500</v>
       </c>
       <c r="H8" s="6">
-        <v>64</v>
+        <v>72.78</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
@@ -1136,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>964</v>
+        <v>972.78</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -1148,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <v>964</v>
+        <v>972.78</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1170,7 +1185,7 @@
         <v>4600</v>
       </c>
       <c r="H9" s="6">
-        <v>55</v>
+        <v>63.64</v>
       </c>
       <c r="I9" s="6">
         <v>0</v>
@@ -1179,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="6">
-        <v>955</v>
+        <v>963.64</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -1191,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6">
-        <v>955</v>
+        <v>963.64</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1213,7 +1228,7 @@
         <v>3700</v>
       </c>
       <c r="H10" s="6">
-        <v>46</v>
+        <v>54.71</v>
       </c>
       <c r="I10" s="6">
         <v>0</v>
@@ -1222,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="6">
-        <v>946</v>
+        <v>954.71</v>
       </c>
       <c r="L10" s="6">
         <v>0</v>
@@ -1234,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>946</v>
+        <v>954.71</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1256,7 +1271,7 @@
         <v>2800</v>
       </c>
       <c r="H11" s="6">
-        <v>37</v>
+        <v>45.75</v>
       </c>
       <c r="I11" s="6">
         <v>0</v>
@@ -1265,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="6">
-        <v>937</v>
+        <v>945.75</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -1277,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>937</v>
+        <v>945.75</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1299,7 +1314,7 @@
         <v>1900</v>
       </c>
       <c r="H12" s="6">
-        <v>28</v>
+        <v>36.67</v>
       </c>
       <c r="I12" s="6">
         <v>0</v>
@@ -1308,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="6">
-        <v>928</v>
+        <v>936.67</v>
       </c>
       <c r="L12" s="6">
         <v>0</v>
@@ -1320,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <v>928</v>
+        <v>936.67</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1342,7 +1357,7 @@
         <v>1000</v>
       </c>
       <c r="H13" s="6">
-        <v>19</v>
+        <v>27.73</v>
       </c>
       <c r="I13" s="6">
         <v>0</v>
@@ -1351,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="6">
-        <v>919</v>
+        <v>927.73</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -1363,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6">
-        <v>919</v>
+        <v>927.73</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1385,7 +1400,7 @@
         <v>100</v>
       </c>
       <c r="H14" s="6">
-        <v>10</v>
+        <v>18.690000000000001</v>
       </c>
       <c r="I14" s="6">
         <v>0</v>
@@ -1394,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="6">
-        <v>910</v>
+        <v>918.69</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -1406,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>910</v>
+        <v>918.69</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1428,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="6">
-        <v>0.97</v>
+        <v>9.68</v>
       </c>
       <c r="I15" s="6">
         <v>0</v>
@@ -1437,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="6">
-        <v>100.97</v>
+        <v>109.68</v>
       </c>
       <c r="L15" s="6">
         <v>0</v>
@@ -1449,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6">
-        <v>100.97</v>
+        <v>109.68</v>
       </c>
     </row>
   </sheetData>
@@ -1462,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,7 +1530,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>3674</v>
+        <v>3817</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
@@ -1549,7 +1564,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>3671</v>
+        <v>3815</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
@@ -1583,7 +1598,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>3669</v>
+        <v>3792</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>22</v>
@@ -1617,7 +1632,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>3672</v>
+        <v>3816</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>22</v>
@@ -1626,7 +1641,7 @@
         <v>42005</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E5" s="6">
         <v>605</v>
@@ -1651,7 +1666,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>3667</v>
+        <v>3790</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>22</v>
@@ -1745,7 +1760,7 @@
       <c r="B2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>42005</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -1772,7 +1787,7 @@
       <c r="B3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>42005</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -1799,10 +1814,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:J6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,102 +1863,88 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>151</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="18">
+        <v>6898</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="7">
-        <v>42050</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="C2" s="19">
+        <v>42037</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>6899</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="19">
+        <v>42037</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>152</v>
-      </c>
-      <c r="B3" s="13" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>6900</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="7">
-        <v>42050</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="C4" s="19">
+        <v>42037</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>154</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="7">
-        <v>42050</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="8"/>
+      <c r="I4" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2061,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2111,88 +2112,85 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>151</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="21">
+        <v>6958</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="14">
-        <v>42064</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="C2" s="22">
+        <v>42065</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>6959</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="22">
+        <v>42065</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>152</v>
-      </c>
-      <c r="B3" s="13" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>6960</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="14">
-        <v>42064</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="C4" s="22">
+        <v>42065</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>154</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="14">
-        <v>42064</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="18"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E7" s="6"/>
+      <c r="H4" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2203,50 +2201,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I5:I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="9" style="18" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="7.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="9" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2261,21 +2259,20 @@
         <v>42037</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -2288,20 +2285,19 @@
         <v>42037</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>55</v>
+      <c r="I3" s="24" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/2584-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-PATTERN-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2584-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-PATTERN-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -204,7 +209,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,6 +374,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -416,7 +424,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,9 +457,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,6 +509,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -818,10 +860,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D9:D10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,12 +880,13 @@
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="20" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -883,17 +926,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -919,8 +963,9 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -958,14 +1003,15 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7">
@@ -990,9 +1036,10 @@
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="6"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1030,14 +1077,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1073,14 +1121,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>990.79</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1116,14 +1165,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>981.62</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1159,14 +1209,15 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>972.78</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1202,14 +1253,15 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>963.64</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1245,14 +1297,15 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
         <v>954.71</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1288,14 +1341,15 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
         <v>945.75</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1331,14 +1385,15 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
         <v>936.67</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1374,14 +1429,15 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
         <v>927.73</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1417,14 +1473,15 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>918.69</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -1460,10 +1517,11 @@
       <c r="M15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6">
+      <c r="N15" s="6"/>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
         <v>109.68</v>
       </c>
     </row>
@@ -2201,7 +2259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
